--- a/Recipients data.xlsx
+++ b/Recipients data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20390"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619C5C0A-3DB5-4CA4-AEF6-95930A8BCA6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA13A07B-4CD6-4129-90DF-D92D85AC5E9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Message</t>
   </si>
@@ -145,6 +145,12 @@
   <si>
     <t>https://t.me/ak3836</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/shenzhenxiuche8</t>
+  </si>
+  <si>
+    <t>https://t.me/gfsqmmy</t>
   </si>
 </sst>
 </file>
@@ -242,7 +248,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A42" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A43" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Username"/>
   </tableColumns>
@@ -580,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -807,6 +813,16 @@
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Recipients data.xlsx
+++ b/Recipients data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20391"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA13A07B-4CD6-4129-90DF-D92D85AC5E9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ACA67D-2F6C-4DDE-B07E-65E31B7F6EA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Message</t>
   </si>
@@ -151,6 +151,13 @@
   </si>
   <si>
     <t>https://t.me/gfsqmmy</t>
+  </si>
+  <si>
+    <t>https://t.me/szzzzz0</t>
+  </si>
+  <si>
+    <t>南山西丽，新人开课了，全套一课1300米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -248,7 +255,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A43" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A44" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Username"/>
   </tableColumns>
@@ -586,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -621,7 +628,9 @@
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
@@ -823,6 +832,11 @@
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Recipients data.xlsx
+++ b/Recipients data.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20391"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ACA67D-2F6C-4DDE-B07E-65E31B7F6EA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE0A3B1-185F-4F40-B99A-F1BFA1A353E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipients" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Message</t>
   </si>
@@ -27,137 +27,165 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://t.me/Sz1888</t>
+  </si>
+  <si>
+    <t>https://t.me/sanshengYX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/shenzhen157</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhenxiuche88</t>
+  </si>
+  <si>
+    <t>https://t.me/szhechaba</t>
+  </si>
+  <si>
+    <t>https://t.me/szsx027</t>
+  </si>
+  <si>
+    <t>https://t.me/leilasz002</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhen_goodcar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/GsShangKe</t>
+  </si>
+  <si>
+    <t>https://t.me/YUE551</t>
+  </si>
+  <si>
+    <t>https://t.me/szshuiguo111</t>
+  </si>
+  <si>
+    <t>https://t.me/jiche111</t>
+  </si>
+  <si>
+    <t>https://t.me/okdrivers</t>
+  </si>
+  <si>
+    <t>https://t.me/waiweiziy</t>
+  </si>
+  <si>
+    <t>https://t.me/gzcccc</t>
+  </si>
+  <si>
+    <t>https://t.me/gskjshe</t>
+  </si>
+  <si>
+    <t>https://t.me/gzthzltsy123</t>
+  </si>
+  <si>
+    <t>https://t.me/guangzhouxiuche3</t>
+  </si>
+  <si>
+    <t>https://t.me/guanggzhou</t>
+  </si>
+  <si>
+    <t>https://t.me/sz366</t>
+  </si>
+  <si>
+    <t>https://t.me/HongXiouge</t>
+  </si>
+  <si>
+    <t>https://t.me/szxiuche007</t>
+  </si>
+  <si>
+    <t>https://t.me/sdssz1</t>
+  </si>
+  <si>
+    <t>https://t.me/ak3836</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/shenzhenxiuche8</t>
+  </si>
+  <si>
+    <t>https://t.me/gfsqmmy</t>
+  </si>
+  <si>
+    <t>https://t.me/szzzzz0</t>
+  </si>
+  <si>
+    <t>南山西丽，新人开课了，全套一课1300米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/ttangya853</t>
+  </si>
+  <si>
+    <t>宝安 翻身地铁站附近 波霸36F，喜欢大胸的小哥哥必须来试试</t>
+  </si>
+  <si>
     <t>https://t.me/caifa6688</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/ShenZhenCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/Sz1888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/szqmjiaoliu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/nenmei1</t>
-  </si>
-  <si>
-    <t>https://t.me/sanshengYX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/shenzhen157</t>
-  </si>
-  <si>
-    <t>https://t.me/shenzhenxiuche88</t>
-  </si>
-  <si>
-    <t>https://t.me/szhechaba</t>
-  </si>
-  <si>
-    <t>https://t.me/szsx027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/szqiyanshe</t>
-  </si>
-  <si>
-    <t>https://t.me/leilasz002</t>
-  </si>
-  <si>
-    <t>https://t.me/shenzhen_goodcar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/xunhuanchuji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/zzaa9455</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/chalou857</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/loufengdq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/sharedGirlsTalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/QGKDLKZJ88888888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/lailai666666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/GSaiyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/szlxy122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/mingge021</t>
-  </si>
-  <si>
-    <t>https://t.me/GsShangKe</t>
-  </si>
-  <si>
-    <t>https://t.me/YUE551</t>
-  </si>
-  <si>
-    <t>https://t.me/szshuiguo111</t>
-  </si>
-  <si>
-    <t>https://t.me/jiche111</t>
-  </si>
-  <si>
-    <t>https://t.me/okdrivers</t>
-  </si>
-  <si>
-    <t>https://t.me/waiweiziy</t>
-  </si>
-  <si>
-    <t>https://t.me/gzcccc</t>
-  </si>
-  <si>
-    <t>https://t.me/gskjshe</t>
-  </si>
-  <si>
-    <t>https://t.me/gzthzltsy123</t>
-  </si>
-  <si>
-    <t>https://t.me/guangzhouxiuche3</t>
-  </si>
-  <si>
-    <t>https://t.me/guanggzhou</t>
-  </si>
-  <si>
-    <t>https://t.me/sz366</t>
-  </si>
-  <si>
-    <t>https://t.me/HongXiouge</t>
-  </si>
-  <si>
-    <t>https://t.me/szxiuche007</t>
-  </si>
-  <si>
-    <t>https://t.me/sdssz1</t>
-  </si>
-  <si>
-    <t>https://t.me/ak3836</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/shenzhenxiuche8</t>
-  </si>
-  <si>
-    <t>https://t.me/gfsqmmy</t>
-  </si>
-  <si>
-    <t>https://t.me/szzzzz0</t>
-  </si>
-  <si>
-    <t>南山西丽，新人开课了，全套一课1300米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/fc8885</t>
   </si>
 </sst>
 </file>
@@ -209,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -218,9 +246,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -255,7 +280,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A44" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A46" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Username"/>
   </tableColumns>
@@ -264,7 +289,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="C1:C3" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="C1:C4" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Message" dataDxfId="0"/>
   </tableColumns>
@@ -593,16 +618,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="26.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="4" customWidth="1"/>
     <col min="3" max="3" width="92.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -616,8 +641,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>41</v>
+      <c r="A2" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -625,218 +650,231 @@
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="5" t="s">
-        <v>44</v>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -845,12 +883,28 @@
     <hyperlink ref="A8" r:id="rId1" xr:uid="{63D99955-2FBB-49D7-B934-9E860C1E5318}"/>
     <hyperlink ref="A15" r:id="rId2" xr:uid="{C4ADDB11-9CC1-4D80-9687-00F64ED86174}"/>
     <hyperlink ref="A2" r:id="rId3" xr:uid="{17629EEC-0957-4048-879E-3A44EC346486}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{3C77A599-B6B6-4D39-A2AB-8277C31DE358}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{0C717754-7478-4C41-B9EE-19B93605F2AC}"/>
+    <hyperlink ref="A5" r:id="rId6" xr:uid="{D4ECB1FC-98BC-459E-BD4D-0E7021031711}"/>
+    <hyperlink ref="A6" r:id="rId7" xr:uid="{99982B23-0D74-4FE6-9C4C-5223290A448A}"/>
+    <hyperlink ref="A7" r:id="rId8" xr:uid="{D8D7FD53-2C06-4762-9A9E-1A28796DA369}"/>
+    <hyperlink ref="A13" r:id="rId9" xr:uid="{651DBD9A-1D64-4717-8247-D12A13FDD27A}"/>
+    <hyperlink ref="A16" r:id="rId10" xr:uid="{8CB9BA8E-BC4C-4728-84B5-A982832392F9}"/>
+    <hyperlink ref="A17" r:id="rId11" xr:uid="{8983123D-88C4-42B8-A241-C22A7F9F5F0A}"/>
+    <hyperlink ref="A18" r:id="rId12" xr:uid="{F2D9B6C7-3ECD-400B-9EA4-A514EE688846}"/>
+    <hyperlink ref="A19" r:id="rId13" xr:uid="{D8E3E4CB-EA46-4AE7-85C0-BFA443B72A4E}"/>
+    <hyperlink ref="A20" r:id="rId14" xr:uid="{A367A334-C28D-4D3B-8E91-A96C53FF35D9}"/>
+    <hyperlink ref="A21" r:id="rId15" xr:uid="{DF8389DA-09C9-4388-9F67-945AC36775D4}"/>
+    <hyperlink ref="A22" r:id="rId16" xr:uid="{7BC4C248-1850-4235-BBD9-2E3897C2D51E}"/>
+    <hyperlink ref="A23" r:id="rId17" xr:uid="{BAF259BD-9DF5-4AC6-B860-A90DB29F9778}"/>
+    <hyperlink ref="A24" r:id="rId18" xr:uid="{162F77D7-A697-4802-AD28-A42AE5C53649}"/>
+    <hyperlink ref="A25" r:id="rId19" xr:uid="{E7EED4C9-687C-4503-8805-3820732F9B20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
   <tableParts count="2">
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Recipients data.xlsx
+++ b/Recipients data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20391"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE0A3B1-185F-4F40-B99A-F1BFA1A353E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DE825A-7492-43A7-91AE-6E72A48BFBC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Message</t>
   </si>
@@ -23,169 +23,192 @@
     <t>Username</t>
   </si>
   <si>
-    <t>南山西丽 400米 70分钟 环保莞式服务</t>
+    <t>https://t.me/sanshengYX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/shenzhen_goodcar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/ak3836</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/caifa6688</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/ShenZhenCity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/Sz1888</t>
-  </si>
-  <si>
-    <t>https://t.me/sanshengYX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/szqmjiaoliu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/nenmei1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/szqiyanshe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/xunhuanchuji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/zzaa9455</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/chalou857</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/loufengdq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/sharedGirlsTalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/QGKDLKZJ88888888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/lailai666666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/GSaiyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/szlxy122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/mingge021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/fc8885</t>
   </si>
   <si>
     <t>https://t.me/shenzhen157</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/shenzhenxiuche88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/szhechaba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/szsx027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/leilasz002</t>
-  </si>
-  <si>
-    <t>https://t.me/shenzhen_goodcar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/GsShangKe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/YUE551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/szshuiguo111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/jiche111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/okdrivers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/waiweiziy</t>
-  </si>
-  <si>
-    <t>https://t.me/gzcccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/gskjshe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/gzthzltsy123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/guangzhouxiuche3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/guanggzhou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/sz366</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/HongXiouge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/szxiuche007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/sdssz1</t>
-  </si>
-  <si>
-    <t>https://t.me/ak3836</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/shenzhenxiuche8</t>
-  </si>
-  <si>
-    <t>https://t.me/gfsqmmy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/szzzzz0</t>
-  </si>
-  <si>
-    <t>南山西丽，新人开课了，全套一课1300米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/gfsqmmy1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/ttangya853</t>
-  </si>
-  <si>
-    <t>宝安 翻身地铁站附近 波霸36F，喜欢大胸的小哥哥必须来试试</t>
-  </si>
-  <si>
-    <t>https://t.me/caifa6688</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/ShenZhenCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/Sz1888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/szqmjiaoliu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/nenmei1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/szqiyanshe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/xunhuanchuji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/zzaa9455</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/chalou857</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/loufengdq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/sharedGirlsTalk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/QGKDLKZJ88888888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/lailai666666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/GSaiyu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/szlxy122</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/mingge021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/fc8885</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南山 西丽 400米 70分钟 环保莞式服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝安 翻身 地铁站附近 波霸36F，喜欢大胸的小哥哥必须来试试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南山 西丽 茶光 环保 莞式服务，🐍吻，口爆，丝足</t>
+  </si>
+  <si>
+    <t>南山 西丽 大学城 深大总医院，新人环保 400米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/yhy52188888888</t>
+  </si>
+  <si>
+    <t>https://t.me/szsx025</t>
   </si>
 </sst>
 </file>
@@ -289,7 +312,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="C1:C4" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="C1:C5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Message" dataDxfId="0"/>
   </tableColumns>
@@ -620,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -642,234 +665,237 @@
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B4"/>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B5"/>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>5</v>
+      <c r="A9" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>6</v>
+      <c r="A10" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
+      <c r="A11" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
+      <c r="A12" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>9</v>
+      <c r="A14" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
-        <v>11</v>
+      <c r="A26" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
-        <v>12</v>
+      <c r="A27" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
-        <v>13</v>
+      <c r="A28" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
-        <v>14</v>
+      <c r="A29" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
-        <v>3</v>
+      <c r="A30" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
-        <v>15</v>
+      <c r="A31" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
-        <v>16</v>
+      <c r="A32" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
-        <v>17</v>
+      <c r="A33" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
-        <v>18</v>
+      <c r="A34" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4" t="s">
-        <v>19</v>
+      <c r="A35" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
-        <v>20</v>
+      <c r="A36" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
-        <v>21</v>
+      <c r="A37" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
-        <v>22</v>
+      <c r="A38" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>23</v>
+      <c r="A39" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
-        <v>24</v>
+      <c r="A40" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
-        <v>25</v>
+      <c r="A41" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
-        <v>27</v>
+      <c r="A42" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
-        <v>28</v>
+      <c r="A43" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
@@ -899,12 +925,35 @@
     <hyperlink ref="A23" r:id="rId17" xr:uid="{BAF259BD-9DF5-4AC6-B860-A90DB29F9778}"/>
     <hyperlink ref="A24" r:id="rId18" xr:uid="{162F77D7-A697-4802-AD28-A42AE5C53649}"/>
     <hyperlink ref="A25" r:id="rId19" xr:uid="{E7EED4C9-687C-4503-8805-3820732F9B20}"/>
+    <hyperlink ref="A9" r:id="rId20" xr:uid="{605C7FFC-03F0-417E-9347-859B2B874B01}"/>
+    <hyperlink ref="A10" r:id="rId21" xr:uid="{A28A6349-8A27-4A0E-9722-78448905CEEF}"/>
+    <hyperlink ref="A11" r:id="rId22" xr:uid="{B8D59EA8-24F6-4A97-9D74-07851D6F3419}"/>
+    <hyperlink ref="A12" r:id="rId23" xr:uid="{544A1964-C44A-452A-BC7F-56F728858CF0}"/>
+    <hyperlink ref="A14" r:id="rId24" xr:uid="{A9F0542F-5E91-441B-80D7-FFA84C3BE1FC}"/>
+    <hyperlink ref="A26" r:id="rId25" xr:uid="{B3CA3D49-875F-4339-A738-8092BC60F88E}"/>
+    <hyperlink ref="A27" r:id="rId26" xr:uid="{F1B8E512-85D3-4C6C-97A0-049BD6A3F553}"/>
+    <hyperlink ref="A28" r:id="rId27" xr:uid="{03C24E7C-F4CB-4833-B0A7-7F3D8365E26A}"/>
+    <hyperlink ref="A29" r:id="rId28" xr:uid="{493A6C15-131E-4AD9-8465-C23A7A3E271A}"/>
+    <hyperlink ref="A30" r:id="rId29" xr:uid="{862D22F6-F66D-4C01-9FAC-810AC89F9D17}"/>
+    <hyperlink ref="A31" r:id="rId30" xr:uid="{F038B122-9D65-434E-A168-A539341AAA17}"/>
+    <hyperlink ref="A32" r:id="rId31" xr:uid="{F4D20263-F64A-403A-BF05-2862AD3F771E}"/>
+    <hyperlink ref="A33" r:id="rId32" xr:uid="{703B1E55-BBCA-4012-B373-7A0EB5192D9D}"/>
+    <hyperlink ref="A34" r:id="rId33" xr:uid="{D22BF3CB-AEF8-4BC6-9422-0CB247EE27F5}"/>
+    <hyperlink ref="A35" r:id="rId34" xr:uid="{7F0BBD16-AA36-49DE-9ED9-F26C1F4BF69A}"/>
+    <hyperlink ref="A36" r:id="rId35" xr:uid="{DCBAEC3D-FF33-4CC1-AA2B-6CA488E5EB0E}"/>
+    <hyperlink ref="A37" r:id="rId36" xr:uid="{6A83260C-BF34-485E-89B9-440DE32BBCB9}"/>
+    <hyperlink ref="A38" r:id="rId37" xr:uid="{7BFE18B9-A83D-441C-B747-89C22252DD6F}"/>
+    <hyperlink ref="A39" r:id="rId38" xr:uid="{68A1B2A9-0A52-4C8A-8CD5-C4352B18C79F}"/>
+    <hyperlink ref="A40" r:id="rId39" xr:uid="{507E360E-4F15-414A-97BA-BC80EB6E2D13}"/>
+    <hyperlink ref="A41" r:id="rId40" xr:uid="{6E92A7BE-0DB4-4E9F-BA78-23033331D2F4}"/>
+    <hyperlink ref="A42" r:id="rId41" xr:uid="{40C36472-1CD8-417D-95CF-4D1904AF9BE6}"/>
+    <hyperlink ref="A43" r:id="rId42" xr:uid="{3B58E830-554E-4C43-A2CC-6B28890BEAE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
   <tableParts count="2">
-    <tablePart r:id="rId21"/>
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId44"/>
+    <tablePart r:id="rId45"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Recipients data.xlsx
+++ b/Recipients data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20391"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DE825A-7492-43A7-91AE-6E72A48BFBC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F55FCE1-ABA1-4790-9BD7-4E11396EFAE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Message</t>
   </si>
@@ -99,116 +99,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://t.me/shenzhen157</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/shenzhenxiuche88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/szhechaba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/szsx027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/leilasz002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/YUE551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/szshuiguo111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/jiche111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/okdrivers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/waiweiziy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/gskjshe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/gzthzltsy123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/guangzhouxiuche3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/guanggzhou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/sz366</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/HongXiouge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/szxiuche007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/sdssz1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/shenzhenxiuche8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/szzzzz0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/gfsqmmy1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/ttangya853</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南山 西丽 400米 70分钟 环保莞式服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝安 翻身 地铁站附近 波霸36F，喜欢大胸的小哥哥必须来试试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南山 西丽 茶光 环保 莞式服务，🐍吻，口爆，丝足</t>
+  </si>
+  <si>
+    <t>南山 西丽 大学城 深大总医院，新人环保 400米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://t.me/fc8885</t>
-  </si>
-  <si>
-    <t>https://t.me/shenzhen157</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/shenzhenxiuche88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/szhechaba</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/szsx027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/leilasz002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/YUE551</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/szshuiguo111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/jiche111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/okdrivers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/waiweiziy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/gskjshe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/gzthzltsy123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/guangzhouxiuche3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/guanggzhou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/sz366</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/HongXiouge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/szxiuche007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/sdssz1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/shenzhenxiuche8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/szzzzz0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/gfsqmmy1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/ttangya853</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南山 西丽 400米 70分钟 环保莞式服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝安 翻身 地铁站附近 波霸36F，喜欢大胸的小哥哥必须来试试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南山 西丽 茶光 环保 莞式服务，🐍吻，口爆，丝足</t>
-  </si>
-  <si>
-    <t>南山 西丽 大学城 深大总医院，新人环保 400米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/yhy52188888888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://t.me/szsx025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/siyue_666</t>
   </si>
 </sst>
 </file>
@@ -303,7 +309,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A46" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A47" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Username"/>
   </tableColumns>
@@ -641,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -669,7 +675,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -677,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -686,7 +692,7 @@
       </c>
       <c r="B4"/>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -695,7 +701,7 @@
       </c>
       <c r="B5"/>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -715,22 +721,22 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -740,7 +746,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -800,17 +806,17 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
@@ -820,87 +826,92 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
-        <v>21</v>
+      <c r="A44" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="6" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -948,12 +959,15 @@
     <hyperlink ref="A41" r:id="rId40" xr:uid="{6E92A7BE-0DB4-4E9F-BA78-23033331D2F4}"/>
     <hyperlink ref="A42" r:id="rId41" xr:uid="{40C36472-1CD8-417D-95CF-4D1904AF9BE6}"/>
     <hyperlink ref="A43" r:id="rId42" xr:uid="{3B58E830-554E-4C43-A2CC-6B28890BEAE2}"/>
+    <hyperlink ref="A44" r:id="rId43" xr:uid="{1F60EE34-7480-4A92-9CBC-27C90237008C}"/>
+    <hyperlink ref="A45" r:id="rId44" xr:uid="{2CB8159D-76B4-4FB7-B293-0B193FB580DB}"/>
+    <hyperlink ref="A46" r:id="rId45" xr:uid="{8FBCF820-8DFE-4671-A04D-3E8BBF301272}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
   <tableParts count="2">
-    <tablePart r:id="rId44"/>
-    <tablePart r:id="rId45"/>
+    <tablePart r:id="rId47"/>
+    <tablePart r:id="rId48"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Recipients data.xlsx
+++ b/Recipients data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20391"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F55FCE1-ABA1-4790-9BD7-4E11396EFAE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E306384D-C64A-4A74-A3D7-9E1A1BC63F8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>Message</t>
   </si>
@@ -179,42 +179,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://t.me/ttangya853</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南山 西丽 400米 70分钟 环保莞式服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝安 翻身 地铁站附近 波霸36F，喜欢大胸的小哥哥必须来试试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南山 西丽 茶光 环保 莞式服务，🐍吻，口爆，丝足</t>
+  </si>
+  <si>
+    <t>https://t.me/fc8885</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/yhy52188888888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/szsx025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南山 西丽 崇文花园，新人环保 400米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/anhao77777</t>
+  </si>
+  <si>
+    <t>https://t.me/SZLHMYY614614</t>
+  </si>
+  <si>
+    <t>https://t.me/vip876549</t>
+  </si>
+  <si>
+    <t>https://t.me/caxingchalou123</t>
+  </si>
+  <si>
+    <t>https://t.me/H1341554</t>
+  </si>
+  <si>
+    <t>https://t.me/szgz12345</t>
+  </si>
+  <si>
+    <t>https://t.me/szqiyanfenshe</t>
+  </si>
+  <si>
+    <t>https://t.me/siyue_666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/szcslrzq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/ssfff078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/a45354656</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/shenzhenxiuchekaopu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/shenzhen911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/jiemeihhai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/xiuchezonbu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/snmnmcvx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://t.me/gfsqmmy1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/ttangya853</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南山 西丽 400米 70分钟 环保莞式服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝安 翻身 地铁站附近 波霸36F，喜欢大胸的小哥哥必须来试试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南山 西丽 茶光 环保 莞式服务，🐍吻，口爆，丝足</t>
-  </si>
-  <si>
-    <t>南山 西丽 大学城 深大总医院，新人环保 400米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/fc8885</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/yhy52188888888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/szsx025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://t.me/siyue_666</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhenyuehuiba</t>
   </si>
 </sst>
 </file>
@@ -309,7 +365,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A47" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A63" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Username"/>
   </tableColumns>
@@ -647,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -675,7 +731,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -683,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -692,7 +748,7 @@
       </c>
       <c r="B4"/>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -701,7 +757,7 @@
       </c>
       <c r="B5"/>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -881,37 +937,117 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="4" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -956,18 +1092,26 @@
     <hyperlink ref="A38" r:id="rId37" xr:uid="{7BFE18B9-A83D-441C-B747-89C22252DD6F}"/>
     <hyperlink ref="A39" r:id="rId38" xr:uid="{68A1B2A9-0A52-4C8A-8CD5-C4352B18C79F}"/>
     <hyperlink ref="A40" r:id="rId39" xr:uid="{507E360E-4F15-414A-97BA-BC80EB6E2D13}"/>
-    <hyperlink ref="A41" r:id="rId40" xr:uid="{6E92A7BE-0DB4-4E9F-BA78-23033331D2F4}"/>
-    <hyperlink ref="A42" r:id="rId41" xr:uid="{40C36472-1CD8-417D-95CF-4D1904AF9BE6}"/>
-    <hyperlink ref="A43" r:id="rId42" xr:uid="{3B58E830-554E-4C43-A2CC-6B28890BEAE2}"/>
-    <hyperlink ref="A44" r:id="rId43" xr:uid="{1F60EE34-7480-4A92-9CBC-27C90237008C}"/>
-    <hyperlink ref="A45" r:id="rId44" xr:uid="{2CB8159D-76B4-4FB7-B293-0B193FB580DB}"/>
-    <hyperlink ref="A46" r:id="rId45" xr:uid="{8FBCF820-8DFE-4671-A04D-3E8BBF301272}"/>
+    <hyperlink ref="A41" r:id="rId40" xr:uid="{40C36472-1CD8-417D-95CF-4D1904AF9BE6}"/>
+    <hyperlink ref="A42" r:id="rId41" xr:uid="{3B58E830-554E-4C43-A2CC-6B28890BEAE2}"/>
+    <hyperlink ref="A43" r:id="rId42" xr:uid="{1F60EE34-7480-4A92-9CBC-27C90237008C}"/>
+    <hyperlink ref="A44" r:id="rId43" xr:uid="{2CB8159D-76B4-4FB7-B293-0B193FB580DB}"/>
+    <hyperlink ref="A45" r:id="rId44" xr:uid="{8FBCF820-8DFE-4671-A04D-3E8BBF301272}"/>
+    <hyperlink ref="A46" r:id="rId45" xr:uid="{7412E93A-596C-49C5-93C9-99DA9412984A}"/>
+    <hyperlink ref="A47" r:id="rId46" xr:uid="{3848BD87-89F2-4A4F-8745-F5A784549CCB}"/>
+    <hyperlink ref="A49" r:id="rId47" xr:uid="{0B0807C0-5CD7-4315-B400-239E303D893C}"/>
+    <hyperlink ref="A50" r:id="rId48" xr:uid="{C3A1C1D8-8B29-4C99-B05B-D1D1B64B244F}"/>
+    <hyperlink ref="A48" r:id="rId49" xr:uid="{66E9EEF4-2451-4DB2-8AF0-6F17C5F7CE36}"/>
+    <hyperlink ref="A51" r:id="rId50" xr:uid="{B67CBB90-9F1C-47A7-8176-8EF122033317}"/>
+    <hyperlink ref="A52" r:id="rId51" xr:uid="{93BF77C4-97AB-48CE-836C-707140956C8A}"/>
+    <hyperlink ref="A53" r:id="rId52" xr:uid="{E0E7A298-A758-4C16-954A-AF614B350EB9}"/>
+    <hyperlink ref="A54" r:id="rId53" xr:uid="{5D4E000D-D5B8-4B7A-98CC-D06EFD1EA52F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
   <tableParts count="2">
-    <tablePart r:id="rId47"/>
-    <tablePart r:id="rId48"/>
+    <tablePart r:id="rId55"/>
+    <tablePart r:id="rId56"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Recipients data.xlsx
+++ b/Recipients data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20391"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonProject\Telegram-Shiller\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06055758-6658-41EE-8AD8-75C7768097C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19275" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19275" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipients" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>Username</t>
   </si>
@@ -221,19 +227,40 @@
   </si>
   <si>
     <t>https://t.me/wwgz123</t>
+  </si>
+  <si>
+    <t>https://t.me/waiwei8881</t>
+  </si>
+  <si>
+    <t>https://t.me/gaoduanwaiweihuiz</t>
+  </si>
+  <si>
+    <t>https://t.me/cctvgf1</t>
+  </si>
+  <si>
+    <t>https://t.me/gssy100</t>
+  </si>
+  <si>
+    <t>https://t.me/yuekezhijia</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhenlangqun</t>
+  </si>
+  <si>
+    <t>https://t.me/loufengziyuan123</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhenparty</t>
+  </si>
+  <si>
+    <t>https://t.me/sztonggao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,337 +285,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -596,249 +307,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -850,62 +322,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -917,23 +342,26 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A65" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A74" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="Username"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Username"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C1:C5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="C1:C5" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="Message" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Message" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1220,25 +648,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="26.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="92.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1256,7 +684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1264,7 +692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1273,7 +701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1282,368 +710,413 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>68</v>
       </c>
     </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId3" display="https://t.me/sanshengYX"/>
-    <hyperlink ref="A15" r:id="rId4" display="https://t.me/shenzhen_goodcar"/>
-    <hyperlink ref="A2" r:id="rId5" display="https://t.me/ak3836"/>
-    <hyperlink ref="A3" r:id="rId6" display="https://t.me/caifa6688"/>
-    <hyperlink ref="A4" r:id="rId7" display="https://t.me/ShenZhenCity"/>
-    <hyperlink ref="A5" r:id="rId8" display="https://t.me/Sz1888"/>
-    <hyperlink ref="A6" r:id="rId9" display="https://t.me/szqmjiaoliu"/>
-    <hyperlink ref="A7" r:id="rId10" display="https://t.me/nenmei1"/>
-    <hyperlink ref="A13" r:id="rId11" display="https://t.me/szqiyanshe"/>
-    <hyperlink ref="A16" r:id="rId12" display="https://t.me/xunhuanchuji"/>
-    <hyperlink ref="A17" r:id="rId13" display="https://t.me/zzaa9455"/>
-    <hyperlink ref="A18" r:id="rId14" display="https://t.me/chalou857"/>
-    <hyperlink ref="A19" r:id="rId15" display="https://t.me/loufengdq"/>
-    <hyperlink ref="A20" r:id="rId16" display="https://t.me/sharedGirlsTalk"/>
-    <hyperlink ref="A21" r:id="rId17" display="https://t.me/QGKDLKZJ88888888"/>
-    <hyperlink ref="A22" r:id="rId18" display="https://t.me/lailai666666"/>
-    <hyperlink ref="A23" r:id="rId19" display="https://t.me/GSaiyu"/>
-    <hyperlink ref="A24" r:id="rId20" display="https://t.me/szlxy122"/>
-    <hyperlink ref="A25" r:id="rId21" display="https://t.me/mingge021"/>
-    <hyperlink ref="A9" r:id="rId22" display="https://t.me/shenzhen157"/>
-    <hyperlink ref="A10" r:id="rId23" display="https://t.me/shenzhenxiuche88"/>
-    <hyperlink ref="A11" r:id="rId24" display="https://t.me/szhechaba"/>
-    <hyperlink ref="A12" r:id="rId25" display="https://t.me/szsx027"/>
-    <hyperlink ref="A14" r:id="rId26" display="https://t.me/leilasz002"/>
-    <hyperlink ref="A26" r:id="rId27" display="https://t.me/YUE551"/>
-    <hyperlink ref="A27" r:id="rId28" display="https://t.me/szshuiguo111"/>
-    <hyperlink ref="A28" r:id="rId29" display="https://t.me/jiche111"/>
-    <hyperlink ref="A29" r:id="rId8" display="https://t.me/Sz1888"/>
-    <hyperlink ref="A30" r:id="rId30" display="https://t.me/okdrivers"/>
-    <hyperlink ref="A31" r:id="rId31" display="https://t.me/waiweiziy"/>
-    <hyperlink ref="A32" r:id="rId32" display="https://t.me/gskjshe"/>
-    <hyperlink ref="A33" r:id="rId33" display="https://t.me/gzthzltsy123"/>
-    <hyperlink ref="A34" r:id="rId34" display="https://t.me/guangzhouxiuche3"/>
-    <hyperlink ref="A35" r:id="rId35" display="https://t.me/guanggzhou"/>
-    <hyperlink ref="A36" r:id="rId36" display="https://t.me/sz366"/>
-    <hyperlink ref="A37" r:id="rId37" display="https://t.me/HongXiouge"/>
-    <hyperlink ref="A38" r:id="rId38" display="https://t.me/szxiuche007"/>
-    <hyperlink ref="A39" r:id="rId39" display="https://t.me/sdssz1"/>
-    <hyperlink ref="A40" r:id="rId40" display="https://t.me/shenzhenxiuche8"/>
-    <hyperlink ref="A41" r:id="rId41" display="https://t.me/szzzzz0"/>
-    <hyperlink ref="A42" r:id="rId42" display="https://t.me/ttangya853"/>
-    <hyperlink ref="A43" r:id="rId43" display="https://t.me/fc8885"/>
-    <hyperlink ref="A44" r:id="rId44" display="https://t.me/yhy52188888888"/>
-    <hyperlink ref="A45" r:id="rId45" display="https://t.me/szsx025"/>
-    <hyperlink ref="A46" r:id="rId46" display="https://t.me/siyue_666"/>
-    <hyperlink ref="A47" r:id="rId47" display="https://t.me/szcslrzq"/>
-    <hyperlink ref="A49" r:id="rId48" display="https://t.me/ssfff078"/>
-    <hyperlink ref="A50" r:id="rId49" display="https://t.me/a45354656"/>
-    <hyperlink ref="A48" r:id="rId50" display="https://t.me/shenzhenxiuchekaopu"/>
-    <hyperlink ref="A51" r:id="rId51" display="https://t.me/shenzhen911"/>
-    <hyperlink ref="A52" r:id="rId52" display="https://t.me/jiemeihhai"/>
-    <hyperlink ref="A53" r:id="rId53" display="https://t.me/xiuchezonbu"/>
-    <hyperlink ref="A54" r:id="rId54" display="https://t.me/snmnmcvx"/>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A18" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A20" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A21" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A9" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A10" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A11" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A12" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A48" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId54"/>
+    <tablePart r:id="rId55"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Recipients data.xlsx
+++ b/Recipients data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonProject\Telegram-Shiller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06055758-6658-41EE-8AD8-75C7768097C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3662B0C3-B258-4B6F-B33A-7362C60F4AFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19275" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>Username</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>https://t.me/sztonggao</t>
+  </si>
+  <si>
+    <t>https://t.me/GZNvNv</t>
   </si>
 </sst>
 </file>
@@ -350,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A74" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A75" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Username"/>
   </tableColumns>
@@ -654,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1053,6 +1056,11 @@
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Recipients data.xlsx
+++ b/Recipients data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20392"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonProject\Telegram-Shiller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3662B0C3-B258-4B6F-B33A-7362C60F4AFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CCD7FC-D67B-40E7-8B1B-F8CD7403C3F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19275" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>Username</t>
   </si>
@@ -31,239 +31,258 @@
     <t>https://t.me/ak3836</t>
   </si>
   <si>
+    <t>https://t.me/caifa6688</t>
+  </si>
+  <si>
+    <t>南山 西丽 崇文花园，新人环保 400米</t>
+  </si>
+  <si>
+    <t>https://t.me/ShenZhenCity</t>
+  </si>
+  <si>
+    <t>宝安 翻身 地铁站附近 波霸36F，喜欢大胸的小哥哥必须来试试</t>
+  </si>
+  <si>
+    <t>https://t.me/Sz1888</t>
+  </si>
+  <si>
+    <t>南山 西丽 茶光 环保 莞式服务，🐍吻，口爆，丝足</t>
+  </si>
+  <si>
+    <t>https://t.me/szqmjiaoliu</t>
+  </si>
+  <si>
+    <t>https://t.me/nenmei1</t>
+  </si>
+  <si>
+    <t>https://t.me/sanshengYX</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhen157</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhenxiuche88</t>
+  </si>
+  <si>
+    <t>https://t.me/szhechaba</t>
+  </si>
+  <si>
+    <t>https://t.me/szsx027</t>
+  </si>
+  <si>
+    <t>https://t.me/szqiyanshe</t>
+  </si>
+  <si>
+    <t>https://t.me/leilasz002</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhen_goodcar</t>
+  </si>
+  <si>
+    <t>https://t.me/xunhuanchuji</t>
+  </si>
+  <si>
+    <t>https://t.me/zzaa9455</t>
+  </si>
+  <si>
+    <t>https://t.me/chalou857</t>
+  </si>
+  <si>
+    <t>https://t.me/loufengdq</t>
+  </si>
+  <si>
+    <t>https://t.me/sharedGirlsTalk</t>
+  </si>
+  <si>
+    <t>https://t.me/QGKDLKZJ88888888</t>
+  </si>
+  <si>
+    <t>https://t.me/lailai666666</t>
+  </si>
+  <si>
+    <t>https://t.me/GSaiyu</t>
+  </si>
+  <si>
+    <t>https://t.me/szlxy122</t>
+  </si>
+  <si>
+    <t>https://t.me/mingge021</t>
+  </si>
+  <si>
+    <t>https://t.me/YUE551</t>
+  </si>
+  <si>
+    <t>https://t.me/szshuiguo111</t>
+  </si>
+  <si>
+    <t>https://t.me/jiche111</t>
+  </si>
+  <si>
+    <t>https://t.me/okdrivers</t>
+  </si>
+  <si>
+    <t>https://t.me/waiweiziy</t>
+  </si>
+  <si>
+    <t>https://t.me/gskjshe</t>
+  </si>
+  <si>
+    <t>https://t.me/gzthzltsy123</t>
+  </si>
+  <si>
+    <t>https://t.me/guangzhouxiuche3</t>
+  </si>
+  <si>
+    <t>https://t.me/guanggzhou</t>
+  </si>
+  <si>
+    <t>https://t.me/sz366</t>
+  </si>
+  <si>
+    <t>https://t.me/HongXiouge</t>
+  </si>
+  <si>
+    <t>https://t.me/szxiuche007</t>
+  </si>
+  <si>
+    <t>https://t.me/sdssz1</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhenxiuche8</t>
+  </si>
+  <si>
+    <t>https://t.me/szzzzz0</t>
+  </si>
+  <si>
+    <t>https://t.me/ttangya853</t>
+  </si>
+  <si>
+    <t>https://t.me/fc8885</t>
+  </si>
+  <si>
+    <t>https://t.me/yhy52188888888</t>
+  </si>
+  <si>
+    <t>https://t.me/szsx025</t>
+  </si>
+  <si>
+    <t>https://t.me/siyue_666</t>
+  </si>
+  <si>
+    <t>https://t.me/szcslrzq</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhenxiuchekaopu</t>
+  </si>
+  <si>
+    <t>https://t.me/ssfff078</t>
+  </si>
+  <si>
+    <t>https://t.me/a45354656</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhen911</t>
+  </si>
+  <si>
+    <t>https://t.me/jiemeihhai</t>
+  </si>
+  <si>
+    <t>https://t.me/xiuchezonbu</t>
+  </si>
+  <si>
+    <t>https://t.me/snmnmcvx</t>
+  </si>
+  <si>
+    <t>https://t.me/anhao77777</t>
+  </si>
+  <si>
+    <t>https://t.me/SZLHMYY614614</t>
+  </si>
+  <si>
+    <t>https://t.me/vip876549</t>
+  </si>
+  <si>
+    <t>https://t.me/caxingchalou123</t>
+  </si>
+  <si>
+    <t>https://t.me/H1341554</t>
+  </si>
+  <si>
+    <t>https://t.me/szgz12345</t>
+  </si>
+  <si>
+    <t>https://t.me/szqiyanfenshe</t>
+  </si>
+  <si>
+    <t>https://t.me/gfsqmmy1</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhenyuehuiba</t>
+  </si>
+  <si>
+    <t>https://t.me/woaixq</t>
+  </si>
+  <si>
+    <t>https://t.me/wwgz123</t>
+  </si>
+  <si>
+    <t>https://t.me/waiwei8881</t>
+  </si>
+  <si>
+    <t>https://t.me/gaoduanwaiweihuiz</t>
+  </si>
+  <si>
+    <t>https://t.me/cctvgf1</t>
+  </si>
+  <si>
+    <t>https://t.me/gssy100</t>
+  </si>
+  <si>
+    <t>https://t.me/yuekezhijia</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhenlangqun</t>
+  </si>
+  <si>
+    <t>https://t.me/loufengziyuan123</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhenparty</t>
+  </si>
+  <si>
+    <t>https://t.me/sztonggao</t>
+  </si>
+  <si>
+    <t>https://t.me/GZNvNv</t>
+  </si>
+  <si>
+    <t>https://t.me/szhot888</t>
+  </si>
+  <si>
+    <t>https://t.me/zsjlt</t>
+  </si>
+  <si>
+    <t>https://t.me/xiaotutu003</t>
+  </si>
+  <si>
+    <t>https://t.me/szsx00058</t>
+  </si>
+  <si>
+    <t>https://t.me/yyyyouyou</t>
+  </si>
+  <si>
+    <t>https://t.me/saolei_sapper</t>
+  </si>
+  <si>
     <t>南山 西丽 400米 70分钟 环保莞式服务</t>
-  </si>
-  <si>
-    <t>https://t.me/caifa6688</t>
-  </si>
-  <si>
-    <t>南山 西丽 崇文花园，新人环保 400米</t>
-  </si>
-  <si>
-    <t>https://t.me/ShenZhenCity</t>
-  </si>
-  <si>
-    <t>宝安 翻身 地铁站附近 波霸36F，喜欢大胸的小哥哥必须来试试</t>
-  </si>
-  <si>
-    <t>https://t.me/Sz1888</t>
-  </si>
-  <si>
-    <t>南山 西丽 茶光 环保 莞式服务，🐍吻，口爆，丝足</t>
-  </si>
-  <si>
-    <t>https://t.me/szqmjiaoliu</t>
-  </si>
-  <si>
-    <t>https://t.me/nenmei1</t>
-  </si>
-  <si>
-    <t>https://t.me/sanshengYX</t>
-  </si>
-  <si>
-    <t>https://t.me/shenzhen157</t>
-  </si>
-  <si>
-    <t>https://t.me/shenzhenxiuche88</t>
-  </si>
-  <si>
-    <t>https://t.me/szhechaba</t>
-  </si>
-  <si>
-    <t>https://t.me/szsx027</t>
-  </si>
-  <si>
-    <t>https://t.me/szqiyanshe</t>
-  </si>
-  <si>
-    <t>https://t.me/leilasz002</t>
-  </si>
-  <si>
-    <t>https://t.me/shenzhen_goodcar</t>
-  </si>
-  <si>
-    <t>https://t.me/xunhuanchuji</t>
-  </si>
-  <si>
-    <t>https://t.me/zzaa9455</t>
-  </si>
-  <si>
-    <t>https://t.me/chalou857</t>
-  </si>
-  <si>
-    <t>https://t.me/loufengdq</t>
-  </si>
-  <si>
-    <t>https://t.me/sharedGirlsTalk</t>
-  </si>
-  <si>
-    <t>https://t.me/QGKDLKZJ88888888</t>
-  </si>
-  <si>
-    <t>https://t.me/lailai666666</t>
-  </si>
-  <si>
-    <t>https://t.me/GSaiyu</t>
-  </si>
-  <si>
-    <t>https://t.me/szlxy122</t>
-  </si>
-  <si>
-    <t>https://t.me/mingge021</t>
-  </si>
-  <si>
-    <t>https://t.me/YUE551</t>
-  </si>
-  <si>
-    <t>https://t.me/szshuiguo111</t>
-  </si>
-  <si>
-    <t>https://t.me/jiche111</t>
-  </si>
-  <si>
-    <t>https://t.me/okdrivers</t>
-  </si>
-  <si>
-    <t>https://t.me/waiweiziy</t>
-  </si>
-  <si>
-    <t>https://t.me/gskjshe</t>
-  </si>
-  <si>
-    <t>https://t.me/gzthzltsy123</t>
-  </si>
-  <si>
-    <t>https://t.me/guangzhouxiuche3</t>
-  </si>
-  <si>
-    <t>https://t.me/guanggzhou</t>
-  </si>
-  <si>
-    <t>https://t.me/sz366</t>
-  </si>
-  <si>
-    <t>https://t.me/HongXiouge</t>
-  </si>
-  <si>
-    <t>https://t.me/szxiuche007</t>
-  </si>
-  <si>
-    <t>https://t.me/sdssz1</t>
-  </si>
-  <si>
-    <t>https://t.me/shenzhenxiuche8</t>
-  </si>
-  <si>
-    <t>https://t.me/szzzzz0</t>
-  </si>
-  <si>
-    <t>https://t.me/ttangya853</t>
-  </si>
-  <si>
-    <t>https://t.me/fc8885</t>
-  </si>
-  <si>
-    <t>https://t.me/yhy52188888888</t>
-  </si>
-  <si>
-    <t>https://t.me/szsx025</t>
-  </si>
-  <si>
-    <t>https://t.me/siyue_666</t>
-  </si>
-  <si>
-    <t>https://t.me/szcslrzq</t>
-  </si>
-  <si>
-    <t>https://t.me/shenzhenxiuchekaopu</t>
-  </si>
-  <si>
-    <t>https://t.me/ssfff078</t>
-  </si>
-  <si>
-    <t>https://t.me/a45354656</t>
-  </si>
-  <si>
-    <t>https://t.me/shenzhen911</t>
-  </si>
-  <si>
-    <t>https://t.me/jiemeihhai</t>
-  </si>
-  <si>
-    <t>https://t.me/xiuchezonbu</t>
-  </si>
-  <si>
-    <t>https://t.me/snmnmcvx</t>
-  </si>
-  <si>
-    <t>https://t.me/anhao77777</t>
-  </si>
-  <si>
-    <t>https://t.me/SZLHMYY614614</t>
-  </si>
-  <si>
-    <t>https://t.me/vip876549</t>
-  </si>
-  <si>
-    <t>https://t.me/caxingchalou123</t>
-  </si>
-  <si>
-    <t>https://t.me/H1341554</t>
-  </si>
-  <si>
-    <t>https://t.me/szgz12345</t>
-  </si>
-  <si>
-    <t>https://t.me/szqiyanfenshe</t>
-  </si>
-  <si>
-    <t>https://t.me/gfsqmmy1</t>
-  </si>
-  <si>
-    <t>https://t.me/shenzhenyuehuiba</t>
-  </si>
-  <si>
-    <t>https://t.me/woaixq</t>
-  </si>
-  <si>
-    <t>https://t.me/wwgz123</t>
-  </si>
-  <si>
-    <t>https://t.me/waiwei8881</t>
-  </si>
-  <si>
-    <t>https://t.me/gaoduanwaiweihuiz</t>
-  </si>
-  <si>
-    <t>https://t.me/cctvgf1</t>
-  </si>
-  <si>
-    <t>https://t.me/gssy100</t>
-  </si>
-  <si>
-    <t>https://t.me/yuekezhijia</t>
-  </si>
-  <si>
-    <t>https://t.me/shenzhenlangqun</t>
-  </si>
-  <si>
-    <t>https://t.me/loufengziyuan123</t>
-  </si>
-  <si>
-    <t>https://t.me/shenzhenparty</t>
-  </si>
-  <si>
-    <t>https://t.me/sztonggao</t>
-  </si>
-  <si>
-    <t>https://t.me/GZNvNv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +312,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -315,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -330,6 +357,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -353,7 +383,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A75" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A82" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Username"/>
   </tableColumns>
@@ -657,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -683,384 +713,419 @@
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
+      <c r="C2" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4"/>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="3" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1121,10 +1186,10 @@
     <hyperlink ref="A54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
   <tableParts count="2">
-    <tablePart r:id="rId54"/>
     <tablePart r:id="rId55"/>
+    <tablePart r:id="rId56"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Recipients data.xlsx
+++ b/Recipients data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20393"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonProject\Telegram-Shiller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CCD7FC-D67B-40E7-8B1B-F8CD7403C3F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE24EF4F-E44B-4B67-B22C-7B9FE23D3C07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19275" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>Username</t>
   </si>
@@ -34,9 +34,6 @@
     <t>https://t.me/caifa6688</t>
   </si>
   <si>
-    <t>南山 西丽 崇文花园，新人环保 400米</t>
-  </si>
-  <si>
     <t>https://t.me/ShenZhenCity</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>https://t.me/Sz1888</t>
   </si>
   <si>
-    <t>南山 西丽 茶光 环保 莞式服务，🐍吻，口爆，丝足</t>
-  </si>
-  <si>
     <t>https://t.me/szqmjiaoliu</t>
   </si>
   <si>
@@ -274,7 +268,79 @@
     <t>https://t.me/saolei_sapper</t>
   </si>
   <si>
-    <t>南山 西丽 400米 70分钟 环保莞式服务</t>
+    <r>
+      <t>南山 西丽 茶光 环保 莞式服务，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🐍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吻，口爆，丝足</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>南山 西丽 4张 崇文花园，新人环保 莞式服务，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🐍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">吻，口爆，丝足 </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://t.me/gsdhgedhbx</t>
+  </si>
+  <si>
+    <t>https://t.me/szssjq</t>
+  </si>
+  <si>
+    <t>https://t.me/zhasgi</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhenyunanggongw</t>
+  </si>
+  <si>
+    <t>https://t.me/szcx0755A</t>
+  </si>
+  <si>
+    <t>https://t.me/yaoyao798</t>
+  </si>
+  <si>
+    <t>https://t.me/xiaotutu2</t>
+  </si>
+  <si>
+    <t>南山 西丽 西丽地铁站B口100m 4张 60分钟 环保莞式服务 ，丝足，抓龙筋</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +348,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +385,18 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -383,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A82" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A89" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Username"/>
   </tableColumns>
@@ -687,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -714,418 +792,453 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
+      <c r="C3" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4"/>
       <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="B5"/>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
+      <c r="C5" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Recipients data.xlsx
+++ b/Recipients data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19275" windowHeight="9660"/>
+    <workbookView windowWidth="19995" windowHeight="11415"/>
   </bookViews>
   <sheets>
     <sheet name="Recipients" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,13 @@
     <t>https://t.me/ak3836</t>
   </si>
   <si>
-    <t>南山 西丽 400米 70分钟 环保莞式服务</t>
+    <t>南山 西丽 地铁站B口 500米 70分钟 环保莞式服务，丝足，抓龙筋</t>
   </si>
   <si>
     <t>https://t.me/caifa6688</t>
   </si>
   <si>
-    <t>南山 西丽 崇文花园，新人环保 400米</t>
+    <t>南山 西丽 崇文花园，新人环保 500米，环保莞式服务，🐍吻，口爆，丝足</t>
   </si>
   <si>
     <t>https://t.me/ShenZhenCity</t>
@@ -1228,8 +1228,8 @@
   <sheetPr/>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/Recipients data.xlsx
+++ b/Recipients data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19995" windowHeight="11415"/>
+    <workbookView windowWidth="20715" windowHeight="10620"/>
   </bookViews>
   <sheets>
     <sheet name="Recipients" sheetId="1" r:id="rId1"/>
@@ -14,57 +14,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
   <si>
     <t>Username</t>
   </si>
   <si>
+    <t>列1</t>
+  </si>
+  <si>
     <t>Message</t>
   </si>
   <si>
     <t>https://t.me/ak3836</t>
   </si>
   <si>
-    <t>南山 西丽 地铁站B口 500米 70分钟 环保莞式服务，丝足，抓龙筋</t>
+    <t>南山 西丽 西丽地铁站B口100m 4张 60分钟 环保莞式服务，丝足</t>
   </si>
   <si>
     <t>https://t.me/caifa6688</t>
   </si>
   <si>
-    <t>南山 西丽 崇文花园，新人环保 500米，环保莞式服务，🐍吻，口爆，丝足</t>
-  </si>
-  <si>
-    <t>https://t.me/ShenZhenCity</t>
-  </si>
-  <si>
-    <t>宝安 翻身 地铁站附近 波霸36F，喜欢大胸的小哥哥必须来试试</t>
-  </si>
-  <si>
-    <t>https://t.me/Sz1888</t>
-  </si>
-  <si>
-    <t>南山 西丽 茶光 环保 莞式服务，🐍吻，口爆，丝足</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>南山 西丽 塘朗 4张 崇文花园，新人环保 莞式服务，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <charset val="134"/>
+      </rPr>
+      <t>🐍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">吻，口爆，丝足 </t>
+    </r>
   </si>
   <si>
     <t>https://t.me/szqmjiaoliu</t>
   </si>
   <si>
+    <t>南山 西丽 茶光 环保 莞式服务，丝足</t>
+  </si>
+  <si>
     <t>https://t.me/nenmei1</t>
   </si>
   <si>
-    <t>https://t.me/sanshengYX</t>
-  </si>
-  <si>
-    <t>https://t.me/shenzhen157</t>
-  </si>
-  <si>
-    <t>https://t.me/shenzhenxiuche88</t>
+    <t>https://t.me/shenzhenxiuche888</t>
   </si>
   <si>
     <t>https://t.me/szhechaba</t>
   </si>
   <si>
-    <t>https://t.me/szsx027</t>
+    <t>https://t.me/amgg8896</t>
+  </si>
+  <si>
+    <t>https://t.me/g65h47</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhenqun2022</t>
   </si>
   <si>
     <t>https://t.me/szqiyanshe</t>
@@ -76,15 +98,9 @@
     <t>https://t.me/shenzhen_goodcar</t>
   </si>
   <si>
-    <t>https://t.me/xunhuanchuji</t>
-  </si>
-  <si>
     <t>https://t.me/zzaa9455</t>
   </si>
   <si>
-    <t>https://t.me/chalou857</t>
-  </si>
-  <si>
     <t>https://t.me/loufengdq</t>
   </si>
   <si>
@@ -103,124 +119,310 @@
     <t>https://t.me/szlxy122</t>
   </si>
   <si>
-    <t>https://t.me/mingge021</t>
-  </si>
-  <si>
     <t>https://t.me/YUE551</t>
   </si>
   <si>
     <t>https://t.me/szshuiguo111</t>
   </si>
   <si>
-    <t>https://t.me/jiche111</t>
-  </si>
-  <si>
-    <t>https://t.me/okdrivers</t>
+    <t>https://t.me/gzthzltsy123</t>
+  </si>
+  <si>
+    <t>https://t.me/guanggzhou</t>
+  </si>
+  <si>
+    <t>https://t.me/sz366</t>
+  </si>
+  <si>
+    <t>https://t.me/HongXiouge</t>
+  </si>
+  <si>
+    <t>https://t.me/szxiuche007</t>
+  </si>
+  <si>
+    <t>https://t.me/fc8885</t>
+  </si>
+  <si>
+    <t>https://t.me/yhy52188888888</t>
+  </si>
+  <si>
+    <t>https://t.me/siyue_666</t>
+  </si>
+  <si>
+    <t>https://t.me/szcslrzq</t>
+  </si>
+  <si>
+    <t>https://t.me/ssfff078</t>
+  </si>
+  <si>
+    <t>https://t.me/a45354656</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhen911</t>
+  </si>
+  <si>
+    <t>https://t.me/jiemeihhai</t>
+  </si>
+  <si>
+    <t>https://t.me/xiuchezonbu</t>
+  </si>
+  <si>
+    <t>https://t.me/snmnmcvx</t>
+  </si>
+  <si>
+    <t>https://t.me/anhao77777</t>
+  </si>
+  <si>
+    <t>https://t.me/SZLHMYY614614</t>
+  </si>
+  <si>
+    <t>https://t.me/vip876549</t>
+  </si>
+  <si>
+    <t>https://t.me/caxingchalou123</t>
+  </si>
+  <si>
+    <t>https://t.me/H1341554</t>
+  </si>
+  <si>
+    <t>https://t.me/szgz12345</t>
+  </si>
+  <si>
+    <t>https://t.me/gfsqmmy1</t>
+  </si>
+  <si>
+    <t>https://t.me/woaixq</t>
+  </si>
+  <si>
+    <t>https://t.me/waiwei8881</t>
+  </si>
+  <si>
+    <t>https://t.me/gaoduanwaiweihuiz</t>
+  </si>
+  <si>
+    <t>https://t.me/cctvgf1</t>
+  </si>
+  <si>
+    <t>https://t.me/gssy100</t>
+  </si>
+  <si>
+    <t>https://t.me/loufengziyuan123</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhenparty</t>
+  </si>
+  <si>
+    <t>https://t.me/sztonggao</t>
+  </si>
+  <si>
+    <t>https://t.me/GZNvNv</t>
+  </si>
+  <si>
+    <t>https://t.me/zsjlt</t>
+  </si>
+  <si>
+    <t>https://t.me/szsx00058</t>
+  </si>
+  <si>
+    <t>https://t.me/gsdhgedhbx</t>
+  </si>
+  <si>
+    <t>https://t.me/szssjq</t>
+  </si>
+  <si>
+    <t>https://t.me/zhasgi</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhenyunanggongw</t>
+  </si>
+  <si>
+    <t>https://t.me/szcx0755A</t>
+  </si>
+  <si>
+    <t>https://t.me/yaoyao798</t>
+  </si>
+  <si>
+    <t>https://t.me/xiaotutu2</t>
+  </si>
+  <si>
+    <t>https://t.me/szchihewanle</t>
+  </si>
+  <si>
+    <t>https://t.me/xiucheDDDD</t>
+  </si>
+  <si>
+    <t>https://t.me/hjkkdjd168</t>
+  </si>
+  <si>
+    <t>https://t.me/djhdhdyi</t>
+  </si>
+  <si>
+    <t>https://t.me/DariusGroup</t>
+  </si>
+  <si>
+    <t>https://t.me/P541888888</t>
+  </si>
+  <si>
+    <t>https://t.me/HeiDongSY</t>
+  </si>
+  <si>
+    <t>https://t.me/yue0755</t>
+  </si>
+  <si>
+    <t>https://t.me/xiaosaoB888666</t>
+  </si>
+  <si>
+    <t>https://t.me/class369</t>
+  </si>
+  <si>
+    <t>https://t.me/linwuqun01</t>
+  </si>
+  <si>
+    <t>https://t.me/zx0011</t>
+  </si>
+  <si>
+    <t>https://t.me/danai5200</t>
   </si>
   <si>
     <t>https://t.me/waiweiziy</t>
   </si>
   <si>
-    <t>https://t.me/gskjshe</t>
-  </si>
-  <si>
-    <t>https://t.me/gzthzltsy123</t>
-  </si>
-  <si>
-    <t>https://t.me/guangzhouxiuche3</t>
-  </si>
-  <si>
-    <t>https://t.me/guanggzhou</t>
-  </si>
-  <si>
-    <t>https://t.me/sz366</t>
-  </si>
-  <si>
-    <t>https://t.me/HongXiouge</t>
-  </si>
-  <si>
-    <t>https://t.me/szxiuche007</t>
-  </si>
-  <si>
-    <t>https://t.me/sdssz1</t>
-  </si>
-  <si>
-    <t>https://t.me/shenzhenxiuche8</t>
-  </si>
-  <si>
-    <t>https://t.me/szzzzz0</t>
-  </si>
-  <si>
-    <t>https://t.me/ttangya853</t>
-  </si>
-  <si>
-    <t>https://t.me/fc8885</t>
-  </si>
-  <si>
-    <t>https://t.me/yhy52188888888</t>
-  </si>
-  <si>
-    <t>https://t.me/szsx025</t>
-  </si>
-  <si>
-    <t>https://t.me/siyue_666</t>
-  </si>
-  <si>
-    <t>https://t.me/szcslrzq</t>
-  </si>
-  <si>
-    <t>https://t.me/shenzhenxiuchekaopu</t>
-  </si>
-  <si>
-    <t>https://t.me/ssfff078</t>
-  </si>
-  <si>
-    <t>https://t.me/a45354656</t>
-  </si>
-  <si>
-    <t>https://t.me/shenzhen911</t>
-  </si>
-  <si>
-    <t>https://t.me/jiemeihhai</t>
-  </si>
-  <si>
-    <t>https://t.me/xiuchezonbu</t>
-  </si>
-  <si>
-    <t>https://t.me/snmnmcvx</t>
-  </si>
-  <si>
-    <t>https://t.me/anhao77777</t>
-  </si>
-  <si>
-    <t>https://t.me/SZLHMYY614614</t>
-  </si>
-  <si>
-    <t>https://t.me/vip876549</t>
-  </si>
-  <si>
-    <t>https://t.me/caxingchalou123</t>
-  </si>
-  <si>
-    <t>https://t.me/H1341554</t>
-  </si>
-  <si>
-    <t>https://t.me/szgz12345</t>
-  </si>
-  <si>
-    <t>https://t.me/szqiyanfenshe</t>
-  </si>
-  <si>
-    <t>https://t.me/gfsqmmy1</t>
-  </si>
-  <si>
-    <t>https://t.me/shenzhenyuehuiba</t>
-  </si>
-  <si>
-    <t>https://t.me/woaixq</t>
-  </si>
-  <si>
-    <t>https://t.me/wwgz123</t>
+    <t>https://t.me/fruits1699</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhenhuanle</t>
+  </si>
+  <si>
+    <t>https://t.me/szbbc</t>
+  </si>
+  <si>
+    <t>https://t.me/jizhongying567</t>
+  </si>
+  <si>
+    <t>https://t.me/zhazhishenzhen</t>
+  </si>
+  <si>
+    <t>https://t.me/aaaszcha</t>
+  </si>
+  <si>
+    <t>https://t.me/SGCZ99</t>
+  </si>
+  <si>
+    <t>https://t.me/happyteams669</t>
+  </si>
+  <si>
+    <t>https://t.me/shasha_520</t>
+  </si>
+  <si>
+    <t>https://t.me/Gschaguan</t>
+  </si>
+  <si>
+    <t>https://t.me/guangdos875875</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhen66888</t>
+  </si>
+  <si>
+    <t>https://t.me/yinshinannv66</t>
+  </si>
+  <si>
+    <t>https://t.me/AGashdsa</t>
+  </si>
+  <si>
+    <t>https://t.me/szlsjr</t>
+  </si>
+  <si>
+    <t>https://t.me/JClaocai</t>
+  </si>
+  <si>
+    <t>https://t.me/szww568</t>
+  </si>
+  <si>
+    <t>https://t.me/SZ92CC</t>
+  </si>
+  <si>
+    <t>https://t.me/LWL332</t>
+  </si>
+  <si>
+    <t>https://t.me/YHMRTU</t>
+  </si>
+  <si>
+    <t>https://t.me/saolei_sapper</t>
+  </si>
+  <si>
+    <t>https://t.me/keyusj6611</t>
+  </si>
+  <si>
+    <t>https://t.me/sz5667</t>
+  </si>
+  <si>
+    <t>https://t.me/szlove8</t>
+  </si>
+  <si>
+    <t>https://t.me/SZhecha88</t>
+  </si>
+  <si>
+    <t>https://t.me/chaopaohui</t>
+  </si>
+  <si>
+    <t>https://t.me/SPANDA88</t>
+  </si>
+  <si>
+    <t>https://t.me/yangcxc</t>
+  </si>
+  <si>
+    <t>https://t.me/lsjdda</t>
+  </si>
+  <si>
+    <t>https://t.me/tyuiopbcc888888</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhensiyue1</t>
+  </si>
+  <si>
+    <t>https://t.me/dushiliren888</t>
+  </si>
+  <si>
+    <t>https://t.me/szqmjlq</t>
+  </si>
+  <si>
+    <t>https://t.me/chocoladove</t>
+  </si>
+  <si>
+    <t>https://t.me/Sz952</t>
+  </si>
+  <si>
+    <t>https://t.me/ggfdaDG</t>
+  </si>
+  <si>
+    <t>https://t.me/sugarbabyasia</t>
+  </si>
+  <si>
+    <t>https://t.me/ayy58tn</t>
+  </si>
+  <si>
+    <t>https://t.me/xiaoxin007rh</t>
+  </si>
+  <si>
+    <t>https://t.me/xcc7899</t>
+  </si>
+  <si>
+    <t>https://t.me/sfc3669</t>
+  </si>
+  <si>
+    <t>https://t.me/mnl78998</t>
+  </si>
+  <si>
+    <t>https://t.me/tk33568</t>
+  </si>
+  <si>
+    <t>https://t.me/Nanshanali666</t>
+  </si>
+  <si>
+    <t>https://t.me/ohf56</t>
+  </si>
+  <si>
+    <t>https://t.me/shenzhenkai</t>
   </si>
 </sst>
 </file>
@@ -233,7 +435,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +595,12 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -840,21 +1048,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -907,7 +1121,10 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="49" formatCode="@"/>
+    </dxf>
     <dxf>
       <alignment wrapText="1"/>
     </dxf>
@@ -922,9 +1139,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A65" totalsRowShown="0">
-  <tableColumns count="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B130" totalsRowShown="0">
+  <tableColumns count="2">
     <tableColumn id="1" name="Username"/>
+    <tableColumn id="2" name="列1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -933,7 +1151,7 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C1:C5" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="Message" dataDxfId="0"/>
+    <tableColumn id="1" name="Message" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1226,417 +1444,749 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="26.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="45.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="92.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
+      <c r="B2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B3"/>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
+      <c r="A4" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B4"/>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
+      <c r="A5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="5" t="s">
-        <v>8</v>
+      <c r="A29" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="5" t="s">
-        <v>33</v>
+      <c r="A30" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="5" t="s">
-        <v>34</v>
+      <c r="A31" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="5" t="s">
-        <v>35</v>
+      <c r="A32" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="5" t="s">
-        <v>36</v>
+      <c r="A33" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="5" t="s">
-        <v>37</v>
+      <c r="A34" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="5" t="s">
-        <v>38</v>
+      <c r="A35" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="5" t="s">
-        <v>39</v>
+      <c r="A36" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="5" t="s">
-        <v>40</v>
+      <c r="A37" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="5" t="s">
-        <v>41</v>
+      <c r="A38" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="5" t="s">
-        <v>42</v>
+      <c r="A39" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="7" t="s">
-        <v>43</v>
+      <c r="A40" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="5" t="s">
-        <v>44</v>
+      <c r="A41" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="5" t="s">
-        <v>45</v>
+      <c r="A42" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="5" t="s">
-        <v>46</v>
+      <c r="A43" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="5" t="s">
-        <v>47</v>
+      <c r="A44" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="5" t="s">
-        <v>48</v>
+      <c r="A45" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="4"/>
+    </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="5" t="s">
-        <v>51</v>
+      <c r="A48" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="5" t="s">
-        <v>52</v>
+      <c r="A49" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="5" t="s">
-        <v>53</v>
+      <c r="A50" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="5" t="s">
-        <v>54</v>
+      <c r="A51" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="5" t="s">
-        <v>55</v>
+      <c r="A52" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="5" t="s">
-        <v>56</v>
+      <c r="A53" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="5" t="s">
-        <v>57</v>
+      <c r="A54" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="3" t="s">
-        <v>58</v>
+      <c r="A55" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="3" t="s">
-        <v>59</v>
+      <c r="A56" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="3" t="s">
-        <v>60</v>
+      <c r="A57" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="3" t="s">
-        <v>61</v>
+      <c r="A58" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="3" t="s">
-        <v>62</v>
+      <c r="A59" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="3" t="s">
-        <v>63</v>
+      <c r="A60" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="3" t="s">
-        <v>64</v>
+      <c r="A61" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="3" t="s">
-        <v>65</v>
+      <c r="A62" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="3" t="s">
-        <v>66</v>
+      <c r="A63" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="3" t="s">
-        <v>67</v>
+      <c r="A64" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="3" t="s">
-        <v>68</v>
+      <c r="A65" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId3" display="https://t.me/sanshengYX"/>
-    <hyperlink ref="A15" r:id="rId4" display="https://t.me/shenzhen_goodcar"/>
-    <hyperlink ref="A2" r:id="rId5" display="https://t.me/ak3836"/>
-    <hyperlink ref="A3" r:id="rId6" display="https://t.me/caifa6688"/>
-    <hyperlink ref="A4" r:id="rId7" display="https://t.me/ShenZhenCity"/>
-    <hyperlink ref="A5" r:id="rId8" display="https://t.me/Sz1888"/>
-    <hyperlink ref="A6" r:id="rId9" display="https://t.me/szqmjiaoliu"/>
-    <hyperlink ref="A7" r:id="rId10" display="https://t.me/nenmei1"/>
-    <hyperlink ref="A13" r:id="rId11" display="https://t.me/szqiyanshe"/>
-    <hyperlink ref="A16" r:id="rId12" display="https://t.me/xunhuanchuji"/>
-    <hyperlink ref="A17" r:id="rId13" display="https://t.me/zzaa9455"/>
-    <hyperlink ref="A18" r:id="rId14" display="https://t.me/chalou857"/>
-    <hyperlink ref="A19" r:id="rId15" display="https://t.me/loufengdq"/>
-    <hyperlink ref="A20" r:id="rId16" display="https://t.me/sharedGirlsTalk"/>
-    <hyperlink ref="A21" r:id="rId17" display="https://t.me/QGKDLKZJ88888888"/>
-    <hyperlink ref="A22" r:id="rId18" display="https://t.me/lailai666666"/>
-    <hyperlink ref="A23" r:id="rId19" display="https://t.me/GSaiyu"/>
-    <hyperlink ref="A24" r:id="rId20" display="https://t.me/szlxy122"/>
-    <hyperlink ref="A25" r:id="rId21" display="https://t.me/mingge021"/>
-    <hyperlink ref="A9" r:id="rId22" display="https://t.me/shenzhen157"/>
-    <hyperlink ref="A10" r:id="rId23" display="https://t.me/shenzhenxiuche88"/>
-    <hyperlink ref="A11" r:id="rId24" display="https://t.me/szhechaba"/>
-    <hyperlink ref="A12" r:id="rId25" display="https://t.me/szsx027"/>
-    <hyperlink ref="A14" r:id="rId26" display="https://t.me/leilasz002"/>
-    <hyperlink ref="A26" r:id="rId27" display="https://t.me/YUE551"/>
-    <hyperlink ref="A27" r:id="rId28" display="https://t.me/szshuiguo111"/>
-    <hyperlink ref="A28" r:id="rId29" display="https://t.me/jiche111"/>
-    <hyperlink ref="A29" r:id="rId8" display="https://t.me/Sz1888"/>
-    <hyperlink ref="A30" r:id="rId30" display="https://t.me/okdrivers"/>
-    <hyperlink ref="A31" r:id="rId31" display="https://t.me/waiweiziy"/>
-    <hyperlink ref="A32" r:id="rId32" display="https://t.me/gskjshe"/>
-    <hyperlink ref="A33" r:id="rId33" display="https://t.me/gzthzltsy123"/>
-    <hyperlink ref="A34" r:id="rId34" display="https://t.me/guangzhouxiuche3"/>
-    <hyperlink ref="A35" r:id="rId35" display="https://t.me/guanggzhou"/>
-    <hyperlink ref="A36" r:id="rId36" display="https://t.me/sz366"/>
-    <hyperlink ref="A37" r:id="rId37" display="https://t.me/HongXiouge"/>
-    <hyperlink ref="A38" r:id="rId38" display="https://t.me/szxiuche007"/>
-    <hyperlink ref="A39" r:id="rId39" display="https://t.me/sdssz1"/>
-    <hyperlink ref="A40" r:id="rId40" display="https://t.me/shenzhenxiuche8"/>
-    <hyperlink ref="A41" r:id="rId41" display="https://t.me/szzzzz0"/>
-    <hyperlink ref="A42" r:id="rId42" display="https://t.me/ttangya853"/>
-    <hyperlink ref="A43" r:id="rId43" display="https://t.me/fc8885"/>
-    <hyperlink ref="A44" r:id="rId44" display="https://t.me/yhy52188888888"/>
-    <hyperlink ref="A45" r:id="rId45" display="https://t.me/szsx025"/>
-    <hyperlink ref="A46" r:id="rId46" display="https://t.me/siyue_666"/>
-    <hyperlink ref="A47" r:id="rId47" display="https://t.me/szcslrzq"/>
-    <hyperlink ref="A49" r:id="rId48" display="https://t.me/ssfff078"/>
-    <hyperlink ref="A50" r:id="rId49" display="https://t.me/a45354656"/>
-    <hyperlink ref="A48" r:id="rId50" display="https://t.me/shenzhenxiuchekaopu"/>
-    <hyperlink ref="A51" r:id="rId51" display="https://t.me/shenzhen911"/>
-    <hyperlink ref="A52" r:id="rId52" display="https://t.me/jiemeihhai"/>
-    <hyperlink ref="A53" r:id="rId53" display="https://t.me/xiuchezonbu"/>
-    <hyperlink ref="A54" r:id="rId54" display="https://t.me/snmnmcvx"/>
+    <hyperlink ref="A13" r:id="rId3" display="https://t.me/shenzhen_goodcar" tooltip="https://t.me/shenzhen_goodcar"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://t.me/ak3836" tooltip="https://t.me/ak3836"/>
+    <hyperlink ref="A3" r:id="rId5" display="https://t.me/caifa6688" tooltip="https://t.me/caifa6688"/>
+    <hyperlink ref="A4" r:id="rId6" display="https://t.me/szqmjiaoliu" tooltip="https://t.me/szqmjiaoliu"/>
+    <hyperlink ref="A5" r:id="rId7" display="https://t.me/nenmei1"/>
+    <hyperlink ref="A11" r:id="rId8" display="https://t.me/szqiyanshe" tooltip="https://t.me/szqiyanshe"/>
+    <hyperlink ref="A14" r:id="rId9" display="https://t.me/zzaa9455" tooltip="https://t.me/zzaa9455"/>
+    <hyperlink ref="A15" r:id="rId10" display="https://t.me/loufengdq" tooltip="https://t.me/loufengdq"/>
+    <hyperlink ref="A16" r:id="rId11" display="https://t.me/sharedGirlsTalk" tooltip="https://t.me/sharedGirlsTalk"/>
+    <hyperlink ref="A17" r:id="rId12" display="https://t.me/QGKDLKZJ88888888" tooltip="https://t.me/QGKDLKZJ88888888"/>
+    <hyperlink ref="A18" r:id="rId13" display="https://t.me/lailai666666" tooltip="https://t.me/lailai666666"/>
+    <hyperlink ref="A6" r:id="rId14" display="https://t.me/shenzhenxiuche888"/>
+    <hyperlink ref="A7" r:id="rId15" display="https://t.me/szhechaba"/>
+    <hyperlink ref="A12" r:id="rId16" display="https://t.me/leilasz002" tooltip="https://t.me/leilasz002"/>
+    <hyperlink ref="A21" r:id="rId17" display="https://t.me/YUE551" tooltip="https://t.me/YUE551"/>
+    <hyperlink ref="A22" r:id="rId18" display="https://t.me/szshuiguo111" tooltip="https://t.me/szshuiguo111"/>
+    <hyperlink ref="A24" r:id="rId19" display="https://t.me/guanggzhou" tooltip="https://t.me/guanggzhou"/>
+    <hyperlink ref="A25" r:id="rId20" display="https://t.me/sz366" tooltip="https://t.me/sz366"/>
+    <hyperlink ref="A26" r:id="rId21" display="https://t.me/HongXiouge" tooltip="https://t.me/HongXiouge"/>
+    <hyperlink ref="A27" r:id="rId22" display="https://t.me/szxiuche007" tooltip="https://t.me/szxiuche007"/>
+    <hyperlink ref="A28" r:id="rId23" display="https://t.me/fc8885" tooltip="https://t.me/fc8885"/>
+    <hyperlink ref="A29" r:id="rId24" display="https://t.me/yhy52188888888"/>
+    <hyperlink ref="A30" r:id="rId25" display="https://t.me/siyue_666"/>
+    <hyperlink ref="A31" r:id="rId26" display="https://t.me/szcslrzq"/>
+    <hyperlink ref="A32" r:id="rId27" display="https://t.me/ssfff078"/>
+    <hyperlink ref="A33" r:id="rId28" display="https://t.me/a45354656"/>
+    <hyperlink ref="A34" r:id="rId29" display="https://t.me/shenzhen911"/>
+    <hyperlink ref="A35" r:id="rId30" display="https://t.me/jiemeihhai"/>
+    <hyperlink ref="A36" r:id="rId31" display="https://t.me/xiuchezonbu"/>
+    <hyperlink ref="A37" r:id="rId32" display="https://t.me/snmnmcvx"/>
+    <hyperlink ref="A8" r:id="rId33" display="https://t.me/amgg8896" tooltip="https://t.me/amgg8896"/>
+    <hyperlink ref="A9" r:id="rId34" display="https://t.me/g65h47" tooltip="https://t.me/g65h47"/>
+    <hyperlink ref="A20" r:id="rId35" display="https://t.me/szlxy122" tooltip="https://t.me/szlxy122"/>
+    <hyperlink ref="A19" r:id="rId36" display="https://t.me/GSaiyu" tooltip="https://t.me/GSaiyu"/>
+    <hyperlink ref="A69" r:id="rId37" display="https://t.me/HeiDongSY"/>
+    <hyperlink ref="A78" r:id="rId38" display="https://t.me/shenzhenhuanle"/>
+    <hyperlink ref="A79" r:id="rId39" display="https://t.me/szbbc"/>
+    <hyperlink ref="A80" r:id="rId40" display="https://t.me/jizhongying567"/>
+    <hyperlink ref="A81" r:id="rId41" display="https://t.me/zhazhishenzhen"/>
+    <hyperlink ref="A82" r:id="rId42" display="https://t.me/aaaszcha"/>
+    <hyperlink ref="A87" r:id="rId43" display="https://t.me/Gschaguan"/>
+    <hyperlink ref="A86" r:id="rId44" display="https://t.me/shasha_520"/>
+    <hyperlink ref="A85" r:id="rId45" display="https://t.me/happyteams669"/>
+    <hyperlink ref="A84" r:id="rId46" display="https://t.me/SGCZ99"/>
+    <hyperlink ref="A83" r:id="rId10" display="https://t.me/loufengdq"/>
+    <hyperlink ref="A75" r:id="rId47" display="https://t.me/danai5200"/>
+    <hyperlink ref="A74" r:id="rId48" display="https://t.me/zx0011"/>
+    <hyperlink ref="A73" r:id="rId49" display="https://t.me/linwuqun01"/>
+    <hyperlink ref="A91" r:id="rId50" display="https://t.me/AGashdsa"/>
+    <hyperlink ref="A90" r:id="rId51" display="https://t.me/yinshinannv66"/>
+    <hyperlink ref="A89" r:id="rId52" display="https://t.me/shenzhen66888"/>
+    <hyperlink ref="A88" r:id="rId53" display="https://t.me/guangdos875875"/>
+    <hyperlink ref="A71" r:id="rId54" display="https://t.me/xiaosaoB888666"/>
+    <hyperlink ref="A64" r:id="rId55" display="https://t.me/xiucheDDDD"/>
+    <hyperlink ref="A63" r:id="rId56" display="https://t.me/szchihewanle"/>
+    <hyperlink ref="A62" r:id="rId57" display="https://t.me/xiaotutu2"/>
+    <hyperlink ref="A61" r:id="rId58" display="https://t.me/yaoyao798"/>
+    <hyperlink ref="A60" r:id="rId59" display="https://t.me/szcx0755A"/>
+    <hyperlink ref="A59" r:id="rId60" display="https://t.me/shenzhenyunanggongw"/>
+    <hyperlink ref="A58" r:id="rId61" display="https://t.me/zhasgi"/>
+    <hyperlink ref="A57" r:id="rId62" display="https://t.me/szssjq"/>
+    <hyperlink ref="A56" r:id="rId63" display="https://t.me/gsdhgedhbx"/>
+    <hyperlink ref="A55" r:id="rId64" display="https://t.me/szsx00058"/>
+    <hyperlink ref="A54" r:id="rId65" display="https://t.me/zsjlt"/>
+    <hyperlink ref="A53" r:id="rId66" display="https://t.me/GZNvNv"/>
+    <hyperlink ref="A52" r:id="rId67" display="https://t.me/sztonggao"/>
+    <hyperlink ref="A51" r:id="rId68" display="https://t.me/shenzhenparty"/>
+    <hyperlink ref="A50" r:id="rId69" display="https://t.me/loufengziyuan123"/>
+    <hyperlink ref="A49" r:id="rId70" display="https://t.me/gssy100"/>
+    <hyperlink ref="A48" r:id="rId71" display="https://t.me/cctvgf1"/>
+    <hyperlink ref="A47" r:id="rId72" display="https://t.me/gaoduanwaiweihuiz"/>
+    <hyperlink ref="A46" r:id="rId73" display="https://t.me/waiwei8881"/>
+    <hyperlink ref="A45" r:id="rId74" display="https://t.me/woaixq"/>
+    <hyperlink ref="A44" r:id="rId75" display="https://t.me/gfsqmmy1"/>
+    <hyperlink ref="A43" r:id="rId76" display="https://t.me/szgz12345"/>
+    <hyperlink ref="A42" r:id="rId77" display="https://t.me/H1341554"/>
+    <hyperlink ref="A41" r:id="rId78" display="https://t.me/caxingchalou123"/>
+    <hyperlink ref="A40" r:id="rId79" display="https://t.me/vip876549"/>
+    <hyperlink ref="A39" r:id="rId80" display="https://t.me/SZLHMYY614614"/>
+    <hyperlink ref="A38" r:id="rId81" display="https://t.me/anhao77777"/>
+    <hyperlink ref="A98" r:id="rId82" display="https://t.me/saolei_sapper"/>
+    <hyperlink ref="A99" r:id="rId83" display="https://t.me/keyusj6611"/>
+    <hyperlink ref="A124" r:id="rId84" display="https://t.me/shenzhenkai" tooltip="https://t.me/shenzhenkai"/>
+    <hyperlink ref="A123" r:id="rId85" display="https://t.me/ohf56" tooltip="https://t.me/ohf56"/>
+    <hyperlink ref="A122" r:id="rId86" display="https://t.me/Nanshanali666"/>
+    <hyperlink ref="A121" r:id="rId87" display="https://t.me/tk33568"/>
+    <hyperlink ref="A23" r:id="rId88" display="https://t.me/gzthzltsy123" tooltip="https://t.me/gzthzltsy123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
